--- a/data/trans_orig/P27_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P27_2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3525C79C-B4C4-4A87-B1C1-345BC851673B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91BB8088-06CF-48DB-91E6-00128ED5C453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A713C7EC-3FAE-462D-9384-6C0D863F8146}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D3099D1-8F44-4C82-A1DC-BFC444C8C1FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="1124">
   <si>
     <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2007 (Tasa respuesta: 94,98%)</t>
   </si>
@@ -1133,2305 +1133,2284 @@
     <t>1,57%</t>
   </si>
   <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2015 (Tasa respuesta: 97,64%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2023 (Tasa respuesta: 99,59%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2015 (Tasa respuesta: 97,64%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo que pasa en ambientes cargados de humo de tabaco durante los fines de semana en 2023 (Tasa respuesta: 99,59%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>6,02%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>13,31%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>9,89%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>11,69%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>80,41%</t>
   </si>
   <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
 </sst>
 </file>
@@ -3843,7 +3822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4976B736-00F7-4739-8FBD-C09EAAE3F9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6687CCDE-8FF2-429C-ACAB-DB7EB4876EB5}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6751,7 +6730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD20FED-1DB7-42A2-A399-28F3479FE69A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDC6941-83FF-4B7D-AA74-8244082BAC67}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7201,10 +7180,10 @@
         <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -7213,13 +7192,13 @@
         <v>3017</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -7228,10 +7207,10 @@
         <v>10913</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>370</v>
@@ -7282,10 +7261,10 @@
         <v>377</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7279,13 @@
         <v>14877</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -7315,13 +7294,13 @@
         <v>11490</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -7330,10 +7309,10 @@
         <v>26367</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>387</v>
@@ -7575,10 +7554,10 @@
         <v>407</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -7587,13 +7566,13 @@
         <v>48019</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7587,13 @@
         <v>65333</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -7623,13 +7602,13 @@
         <v>46638</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -7638,13 +7617,13 @@
         <v>111971</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7638,13 @@
         <v>220675</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -7674,13 +7653,13 @@
         <v>270945</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>463</v>
@@ -7689,13 +7668,13 @@
         <v>491620</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7793,13 @@
         <v>21532</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -7832,10 +7811,10 @@
         <v>433</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M23" s="7">
         <v>50</v>
@@ -7844,13 +7823,13 @@
         <v>49983</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,13 +7844,13 @@
         <v>36534</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -7880,13 +7859,13 @@
         <v>29448</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>377</v>
+        <v>442</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M24" s="7">
         <v>62</v>
@@ -7895,13 +7874,13 @@
         <v>65982</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,10 +7895,10 @@
         <v>37822</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>447</v>
@@ -7949,10 +7928,10 @@
         <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7967,13 +7946,13 @@
         <v>562752</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>528</v>
@@ -7982,13 +7961,13 @@
         <v>572816</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>1051</v>
@@ -7997,13 +7976,13 @@
         <v>1135568</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,7 +8056,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8092,7 +8071,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8107,7 +8086,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8122,13 +8101,13 @@
         <v>13170</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -8137,13 +8116,13 @@
         <v>3984</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -8152,13 +8131,13 @@
         <v>17154</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8152,13 @@
         <v>45492</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>476</v>
+        <v>246</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -8188,13 +8167,13 @@
         <v>22517</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M30" s="7">
         <v>63</v>
@@ -8203,13 +8182,13 @@
         <v>68009</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8224,13 +8203,13 @@
         <v>24007</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>246</v>
+        <v>482</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -8239,13 +8218,13 @@
         <v>29262</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M31" s="7">
         <v>51</v>
@@ -8254,13 +8233,13 @@
         <v>53269</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8275,13 +8254,13 @@
         <v>129949</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="H32" s="7">
         <v>155</v>
@@ -8290,13 +8269,13 @@
         <v>161973</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M32" s="7">
         <v>276</v>
@@ -8305,13 +8284,13 @@
         <v>291922</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8385,7 +8364,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>364</v>
+        <v>497</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8445,7 +8424,7 @@
         <v>2962</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>503</v>
@@ -8463,10 +8442,10 @@
         <v>505</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>399</v>
+        <v>506</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,10 +8460,10 @@
         <v>14877</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>508</v>
+        <v>256</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>509</v>
@@ -8538,7 +8517,7 @@
         <v>516</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>517</v>
+        <v>290</v>
       </c>
       <c r="H37" s="7">
         <v>33</v>
@@ -8547,13 +8526,13 @@
         <v>34526</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M37" s="7">
         <v>72</v>
@@ -8562,13 +8541,13 @@
         <v>75451</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8583,13 +8562,13 @@
         <v>207425</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H38" s="7">
         <v>219</v>
@@ -8598,13 +8577,13 @@
         <v>226842</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M38" s="7">
         <v>416</v>
@@ -8613,13 +8592,13 @@
         <v>434268</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8693,7 +8672,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -8741,10 +8720,10 @@
         <v>14</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>534</v>
+        <v>139</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
@@ -8753,13 +8732,13 @@
         <v>3974</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>403</v>
+        <v>288</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M41" s="7">
         <v>9</v>
@@ -8768,13 +8747,13 @@
         <v>9181</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8789,13 +8768,13 @@
         <v>31744</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>376</v>
+        <v>537</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H42" s="7">
         <v>31</v>
@@ -8804,13 +8783,13 @@
         <v>32995</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="M42" s="7">
         <v>61</v>
@@ -8822,10 +8801,10 @@
         <v>106</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8840,13 +8819,13 @@
         <v>116708</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H43" s="7">
         <v>68</v>
@@ -8855,13 +8834,13 @@
         <v>72853</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M43" s="7">
         <v>183</v>
@@ -8870,13 +8849,13 @@
         <v>189561</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="P43" s="7" t="s">
-        <v>551</v>
-      </c>
       <c r="Q43" s="7" t="s">
-        <v>552</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8891,13 +8870,13 @@
         <v>497923</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="H44" s="7">
         <v>523</v>
@@ -8906,13 +8885,13 @@
         <v>574221</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="M44" s="7">
         <v>981</v>
@@ -8921,13 +8900,13 @@
         <v>1072144</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9046,13 +9025,13 @@
         <v>34369</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H47" s="7">
         <v>24</v>
@@ -9061,13 +9040,13 @@
         <v>25903</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M47" s="7">
         <v>58</v>
@@ -9076,10 +9055,10 @@
         <v>60272</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>567</v>
@@ -9112,13 +9091,13 @@
         <v>47263</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>474</v>
+        <v>571</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M48" s="7">
         <v>77</v>
@@ -9127,13 +9106,13 @@
         <v>81045</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9148,13 +9127,13 @@
         <v>127856</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H49" s="7">
         <v>111</v>
@@ -9163,13 +9142,13 @@
         <v>122667</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M49" s="7">
         <v>231</v>
@@ -9178,13 +9157,13 @@
         <v>250524</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9199,13 +9178,13 @@
         <v>518429</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H50" s="7">
         <v>489</v>
@@ -9214,13 +9193,13 @@
         <v>536708</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M50" s="7">
         <v>960</v>
@@ -9229,13 +9208,13 @@
         <v>1055137</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9354,13 +9333,13 @@
         <v>91983</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>383</v>
+        <v>471</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="H53" s="7">
         <v>66</v>
@@ -9369,13 +9348,13 @@
         <v>68291</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>596</v>
+        <v>367</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M53" s="7">
         <v>157</v>
@@ -9384,10 +9363,10 @@
         <v>160274</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>599</v>
+        <v>104</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>600</v>
@@ -9426,7 +9405,7 @@
         <v>605</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>451</v>
+        <v>606</v>
       </c>
       <c r="M54" s="7">
         <v>366</v>
@@ -9435,10 +9414,10 @@
         <v>384964</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>607</v>
+        <v>381</v>
       </c>
       <c r="Q54" s="7" t="s">
         <v>608</v>
@@ -9462,7 +9441,7 @@
         <v>610</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>416</v>
+        <v>611</v>
       </c>
       <c r="H55" s="7">
         <v>334</v>
@@ -9471,13 +9450,13 @@
         <v>358609</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M55" s="7">
         <v>749</v>
@@ -9623,7 +9602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24720C82-4EC0-4B5C-BF3C-51B49788FAA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25E790D-6C93-4C2F-8B20-62BB57685373}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9768,7 +9747,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9801,7 +9780,7 @@
         <v>627</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>568</v>
@@ -9813,13 +9792,13 @@
         <v>3833</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>536</v>
+        <v>628</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>251</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -9831,10 +9810,10 @@
         <v>505</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9849,13 +9828,13 @@
         <v>12921</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>634</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -9864,13 +9843,13 @@
         <v>4034</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -9882,7 +9861,7 @@
         <v>377</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>258</v>
@@ -9900,13 +9879,13 @@
         <v>11720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>472</v>
+        <v>387</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -9915,13 +9894,13 @@
         <v>20452</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -9930,13 +9909,13 @@
         <v>32172</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>644</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9951,13 +9930,13 @@
         <v>262420</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="H8" s="7">
         <v>249</v>
@@ -9966,13 +9945,13 @@
         <v>259406</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="M8" s="7">
         <v>487</v>
@@ -9981,13 +9960,13 @@
         <v>521826</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10106,13 +10085,13 @@
         <v>39450</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -10121,13 +10100,13 @@
         <v>36610</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>655</v>
+        <v>476</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="M11" s="7">
         <v>73</v>
@@ -10136,13 +10115,13 @@
         <v>76060</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>451</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10157,13 +10136,13 @@
         <v>92644</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H12" s="7">
         <v>76</v>
@@ -10172,13 +10151,13 @@
         <v>79306</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="M12" s="7">
         <v>164</v>
@@ -10187,13 +10166,13 @@
         <v>171950</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10208,13 +10187,13 @@
         <v>98049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -10226,10 +10205,10 @@
         <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>672</v>
+        <v>548</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M13" s="7">
         <v>171</v>
@@ -10238,13 +10217,13 @@
         <v>183527</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10259,13 +10238,13 @@
         <v>268080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H14" s="7">
         <v>292</v>
@@ -10274,13 +10253,13 @@
         <v>319381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M14" s="7">
         <v>545</v>
@@ -10289,13 +10268,13 @@
         <v>587460</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10414,13 +10393,13 @@
         <v>865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -10429,13 +10408,13 @@
         <v>902</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>688</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -10444,13 +10423,13 @@
         <v>1767</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10465,13 +10444,13 @@
         <v>14618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>688</v>
+        <v>432</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -10480,13 +10459,13 @@
         <v>11466</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -10495,13 +10474,13 @@
         <v>26084</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10516,13 +10495,13 @@
         <v>35449</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -10531,13 +10510,13 @@
         <v>36216</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>701</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -10758,7 +10737,7 @@
         <v>718</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>719</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10773,13 +10752,13 @@
         <v>3659</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>721</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>722</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -10791,10 +10770,10 @@
         <v>13</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>534</v>
+        <v>722</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>535</v>
+        <v>723</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -10803,13 +10782,13 @@
         <v>6399</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10824,13 +10803,13 @@
         <v>8100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -10839,13 +10818,13 @@
         <v>12253</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>506</v>
+        <v>729</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>363</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -10854,13 +10833,13 @@
         <v>20353</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10875,13 +10854,13 @@
         <v>354640</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H26" s="7">
         <v>342</v>
@@ -10890,13 +10869,13 @@
         <v>368966</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M26" s="7">
         <v>681</v>
@@ -10905,13 +10884,13 @@
         <v>723606</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10985,7 +10964,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>741</v>
+        <v>506</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -11000,7 +10979,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -11015,7 +10994,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11036,7 +11015,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>741</v>
+        <v>506</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -11051,7 +11030,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -11066,7 +11045,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11081,13 +11060,13 @@
         <v>5193</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -11096,13 +11075,13 @@
         <v>6472</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -11111,13 +11090,13 @@
         <v>11665</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11132,13 +11111,13 @@
         <v>18761</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -11147,13 +11126,13 @@
         <v>14327</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>259</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -11162,13 +11141,13 @@
         <v>33088</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11183,13 +11162,13 @@
         <v>182836</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H32" s="7">
         <v>198</v>
@@ -11198,13 +11177,13 @@
         <v>194940</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M32" s="7">
         <v>382</v>
@@ -11213,13 +11192,13 @@
         <v>377777</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11293,7 +11272,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>364</v>
+        <v>497</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -11308,7 +11287,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>364</v>
+        <v>497</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -11338,10 +11317,10 @@
         <v>6828</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>604</v>
@@ -11353,13 +11332,13 @@
         <v>5791</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>364</v>
+        <v>497</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M35" s="7">
         <v>13</v>
@@ -11368,13 +11347,13 @@
         <v>12619</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11389,13 +11368,13 @@
         <v>22083</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -11404,13 +11383,13 @@
         <v>10269</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>443</v>
+        <v>777</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="M36" s="7">
         <v>33</v>
@@ -11419,13 +11398,13 @@
         <v>32352</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11440,13 +11419,13 @@
         <v>22441</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -11455,13 +11434,13 @@
         <v>19384</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>783</v>
+        <v>408</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M37" s="7">
         <v>41</v>
@@ -11470,13 +11449,13 @@
         <v>41824</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11491,13 +11470,13 @@
         <v>211772</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H38" s="7">
         <v>222</v>
@@ -11506,13 +11485,13 @@
         <v>233583</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>532</v>
+        <v>794</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="M38" s="7">
         <v>431</v>
@@ -11521,13 +11500,13 @@
         <v>445354</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11601,7 +11580,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -11646,13 +11625,13 @@
         <v>59021</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="H41" s="7">
         <v>56</v>
@@ -11661,13 +11640,13 @@
         <v>58623</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M41" s="7">
         <v>106</v>
@@ -11676,13 +11655,13 @@
         <v>117644</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>409</v>
+        <v>806</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11697,10 +11676,10 @@
         <v>93171</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>806</v>
+        <v>477</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>185</v>
@@ -11712,13 +11691,13 @@
         <v>95782</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M42" s="7">
         <v>174</v>
@@ -11727,13 +11706,13 @@
         <v>188954</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11748,13 +11727,13 @@
         <v>135796</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H43" s="7">
         <v>118</v>
@@ -11763,13 +11742,13 @@
         <v>121689</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="M43" s="7">
         <v>237</v>
@@ -11778,13 +11757,13 @@
         <v>257485</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11799,13 +11778,13 @@
         <v>345070</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H44" s="7">
         <v>347</v>
@@ -11814,13 +11793,13 @@
         <v>381824</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M44" s="7">
         <v>657</v>
@@ -11829,13 +11808,13 @@
         <v>726894</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11939,7 +11918,7 @@
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11954,13 +11933,13 @@
         <v>10845</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H47" s="7">
         <v>15</v>
@@ -11969,13 +11948,13 @@
         <v>15776</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>569</v>
+        <v>838</v>
       </c>
       <c r="M47" s="7">
         <v>25</v>
@@ -11984,13 +11963,13 @@
         <v>26622</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12005,13 +11984,13 @@
         <v>40064</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H48" s="7">
         <v>39</v>
@@ -12020,13 +11999,13 @@
         <v>41861</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="M48" s="7">
         <v>78</v>
@@ -12035,13 +12014,13 @@
         <v>81925</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -12056,10 +12035,10 @@
         <v>268803</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>30</v>
@@ -12071,13 +12050,13 @@
         <v>250345</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>193</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="M49" s="7">
         <v>490</v>
@@ -12089,10 +12068,10 @@
         <v>208</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -12107,13 +12086,13 @@
         <v>427473</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="H50" s="7">
         <v>432</v>
@@ -12122,13 +12101,13 @@
         <v>479708</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="M50" s="7">
         <v>849</v>
@@ -12137,13 +12116,13 @@
         <v>907182</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -12262,13 +12241,13 @@
         <v>125649</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H53" s="7">
         <v>118</v>
@@ -12277,13 +12256,13 @@
         <v>122477</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="M53" s="7">
         <v>232</v>
@@ -12292,10 +12271,10 @@
         <v>248126</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>219</v>
@@ -12313,13 +12292,13 @@
         <v>284355</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="H54" s="7">
         <v>243</v>
@@ -12328,13 +12307,13 @@
         <v>251929</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="M54" s="7">
         <v>509</v>
@@ -12343,13 +12322,13 @@
         <v>536284</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -12364,13 +12343,13 @@
         <v>599119</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="H55" s="7">
         <v>533</v>
@@ -12379,13 +12358,13 @@
         <v>560144</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>546</v>
+        <v>882</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="M55" s="7">
         <v>1095</v>
@@ -12394,13 +12373,13 @@
         <v>1159264</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -12415,13 +12394,13 @@
         <v>2313059</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="H56" s="7">
         <v>2356</v>
@@ -12430,13 +12409,13 @@
         <v>2516353</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="M56" s="7">
         <v>4578</v>
@@ -12445,13 +12424,13 @@
         <v>4829412</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -12531,7 +12510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA17558A-0E03-4676-9E39-5D525404CFA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE576E54-A2D2-41BB-9871-63185C18CF58}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12548,7 +12527,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -12661,7 +12640,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -12676,7 +12655,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -12691,7 +12670,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -12712,7 +12691,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -12727,7 +12706,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -12742,7 +12721,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -12757,13 +12736,13 @@
         <v>49095</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="H6" s="7">
         <v>58</v>
@@ -12772,13 +12751,13 @@
         <v>31043</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>899</v>
+        <v>669</v>
       </c>
       <c r="M6" s="7">
         <v>107</v>
@@ -12787,13 +12766,13 @@
         <v>80138</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>576</v>
+        <v>902</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -12808,13 +12787,13 @@
         <v>135335</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="H7" s="7">
         <v>252</v>
@@ -12823,13 +12802,13 @@
         <v>136087</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="M7" s="7">
         <v>419</v>
@@ -12838,13 +12817,13 @@
         <v>271422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -12859,13 +12838,13 @@
         <v>75867</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>916</v>
       </c>
       <c r="H8" s="7">
         <v>228</v>
@@ -12874,13 +12853,13 @@
         <v>104272</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="M8" s="7">
         <v>343</v>
@@ -12889,13 +12868,13 @@
         <v>180140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -12969,7 +12948,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -12999,7 +12978,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -13017,10 +12996,10 @@
         <v>175</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>593</v>
+        <v>925</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -13029,13 +13008,13 @@
         <v>1387</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -13044,13 +13023,13 @@
         <v>6265</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>832</v>
+        <v>928</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -13065,13 +13044,13 @@
         <v>46256</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>544</v>
+        <v>929</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -13080,13 +13059,13 @@
         <v>33287</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>433</v>
+        <v>378</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="M12" s="7">
         <v>72</v>
@@ -13095,13 +13074,13 @@
         <v>79542</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -13116,13 +13095,13 @@
         <v>107522</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>931</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -13131,13 +13110,13 @@
         <v>92628</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>934</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>183</v>
@@ -13146,13 +13125,13 @@
         <v>200150</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>935</v>
+        <v>484</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -13167,13 +13146,13 @@
         <v>360641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="H14" s="7">
         <v>566</v>
@@ -13182,13 +13161,13 @@
         <v>427265</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="M14" s="7">
         <v>839</v>
@@ -13197,13 +13176,13 @@
         <v>787907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -13292,7 +13271,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -13307,7 +13286,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -13322,13 +13301,13 @@
         <v>5160</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>949</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -13337,13 +13316,13 @@
         <v>5670</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>714</v>
+        <v>955</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>956</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -13352,13 +13331,13 @@
         <v>10830</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>742</v>
+        <v>957</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>958</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -13373,13 +13352,13 @@
         <v>6126</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>953</v>
+        <v>926</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>865</v>
+        <v>960</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -13388,13 +13367,13 @@
         <v>13270</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="M18" s="7">
         <v>21</v>
@@ -13403,13 +13382,13 @@
         <v>19396</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>958</v>
+        <v>839</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>573</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -13424,13 +13403,13 @@
         <v>4720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>966</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -13439,13 +13418,13 @@
         <v>16778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -13454,13 +13433,13 @@
         <v>21498</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>963</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -13475,13 +13454,13 @@
         <v>306235</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>645</v>
+        <v>973</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="H20" s="7">
         <v>494</v>
@@ -13490,13 +13469,13 @@
         <v>337566</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="M20" s="7">
         <v>834</v>
@@ -13505,13 +13484,13 @@
         <v>643801</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>971</v>
+        <v>795</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -13585,7 +13564,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -13600,7 +13579,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -13615,7 +13594,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -13630,13 +13609,13 @@
         <v>8227</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>975</v>
+        <v>176</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>656</v>
+        <v>981</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -13645,13 +13624,13 @@
         <v>6093</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>98</v>
+        <v>464</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>977</v>
+        <v>374</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -13660,13 +13639,13 @@
         <v>14320</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>535</v>
+        <v>723</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>979</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -13681,13 +13660,13 @@
         <v>21904</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -13696,13 +13675,13 @@
         <v>20417</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>983</v>
+        <v>502</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>506</v>
+        <v>987</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -13711,13 +13690,13 @@
         <v>42321</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>986</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -13732,13 +13711,13 @@
         <v>14842</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>987</v>
+        <v>633</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>984</v>
+        <v>216</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -13747,13 +13726,13 @@
         <v>21421</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>431</v>
+        <v>991</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -13762,13 +13741,13 @@
         <v>36264</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>542</v>
+        <v>994</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -13783,13 +13762,13 @@
         <v>275390</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="H26" s="7">
         <v>534</v>
@@ -13798,13 +13777,13 @@
         <v>378171</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>997</v>
+        <v>767</v>
       </c>
       <c r="M26" s="7">
         <v>785</v>
@@ -13813,13 +13792,13 @@
         <v>653560</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>1000</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -13893,7 +13872,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -13902,13 +13881,13 @@
         <v>27609</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>715</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -13917,13 +13896,13 @@
         <v>27609</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>1003</v>
+        <v>434</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>403</v>
+        <v>288</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>1004</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -13944,7 +13923,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>368</v>
+        <v>952</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -13953,7 +13932,7 @@
         <v>455</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
@@ -13968,13 +13947,13 @@
         <v>1054</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>534</v>
+        <v>722</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>629</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -13989,13 +13968,13 @@
         <v>3730</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>1006</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -14004,13 +13983,13 @@
         <v>4526</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>723</v>
+        <v>957</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>1007</v>
+        <v>541</v>
       </c>
       <c r="M30" s="7">
         <v>17</v>
@@ -14022,7 +14001,7 @@
         <v>505</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>719</v>
+        <v>1007</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>1008</v>
@@ -14070,13 +14049,13 @@
         <v>43120</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>1015</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>1016</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -14091,13 +14070,13 @@
         <v>166858</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>1018</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>1019</v>
       </c>
       <c r="H32" s="7">
         <v>445</v>
@@ -14106,13 +14085,13 @@
         <v>209364</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>1020</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>1021</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>1022</v>
       </c>
       <c r="M32" s="7">
         <v>681</v>
@@ -14121,13 +14100,13 @@
         <v>376221</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>1024</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -14201,7 +14180,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -14231,7 +14210,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>534</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -14246,13 +14225,13 @@
         <v>4024</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>1027</v>
+        <v>256</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -14261,13 +14240,13 @@
         <v>5971</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>720</v>
+        <v>463</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>449</v>
+        <v>785</v>
       </c>
       <c r="M35" s="7">
         <v>14</v>
@@ -14279,10 +14258,10 @@
         <v>505</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>720</v>
+        <v>176</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>1029</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -14297,13 +14276,13 @@
         <v>21323</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="H36" s="7">
         <v>20</v>
@@ -14312,13 +14291,13 @@
         <v>15415</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>1035</v>
+        <v>573</v>
       </c>
       <c r="M36" s="7">
         <v>41</v>
@@ -14330,10 +14309,10 @@
         <v>222</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -14348,13 +14327,13 @@
         <v>9973</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1037</v>
+        <v>384</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -14363,13 +14342,13 @@
         <v>8003</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="M37" s="7">
         <v>24</v>
@@ -14378,13 +14357,13 @@
         <v>17977</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>514</v>
+        <v>1039</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>376</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -14399,13 +14378,13 @@
         <v>241903</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H38" s="7">
         <v>421</v>
@@ -14414,13 +14393,13 @@
         <v>246234</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="M38" s="7">
         <v>752</v>
@@ -14429,13 +14408,13 @@
         <v>488137</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>1052</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -14509,7 +14488,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -14539,7 +14518,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -14554,13 +14533,13 @@
         <v>5374</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>251</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>963</v>
+        <v>370</v>
       </c>
       <c r="H41" s="7">
         <v>14</v>
@@ -14569,13 +14548,13 @@
         <v>10987</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>1054</v>
+        <v>98</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="M41" s="7">
         <v>20</v>
@@ -14584,13 +14563,13 @@
         <v>16361</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -14605,13 +14584,13 @@
         <v>34765</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>1060</v>
+        <v>384</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>697</v>
+        <v>1055</v>
       </c>
       <c r="H42" s="7">
         <v>26</v>
@@ -14623,10 +14602,10 @@
         <v>504</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>372</v>
+        <v>1056</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="M42" s="7">
         <v>52</v>
@@ -14635,13 +14614,13 @@
         <v>57733</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -14656,13 +14635,13 @@
         <v>71569</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>697</v>
+        <v>1062</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="H43" s="7">
         <v>55</v>
@@ -14671,13 +14650,13 @@
         <v>40011</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>1068</v>
+        <v>1050</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>255</v>
+        <v>969</v>
       </c>
       <c r="M43" s="7">
         <v>111</v>
@@ -14689,10 +14668,10 @@
         <v>216</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -14707,13 +14686,13 @@
         <v>504717</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>762</v>
+        <v>1069</v>
       </c>
       <c r="H44" s="7">
         <v>848</v>
@@ -14722,13 +14701,13 @@
         <v>720325</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>1073</v>
+        <v>1021</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="M44" s="7">
         <v>1350</v>
@@ -14737,13 +14716,13 @@
         <v>1225042</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -14817,7 +14796,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -14832,7 +14811,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -14847,7 +14826,7 @@
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -14862,13 +14841,13 @@
         <v>10166</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>397</v>
+        <v>1077</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H47" s="7">
         <v>14</v>
@@ -14877,13 +14856,13 @@
         <v>12617</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>1081</v>
+        <v>957</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>839</v>
+        <v>1078</v>
       </c>
       <c r="M47" s="7">
         <v>24</v>
@@ -14892,13 +14871,13 @@
         <v>22783</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>1082</v>
+        <v>536</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>629</v>
+        <v>724</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>1083</v>
+        <v>962</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -14913,13 +14892,13 @@
         <v>37505</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>1085</v>
+        <v>925</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>777</v>
+        <v>608</v>
       </c>
       <c r="H48" s="7">
         <v>28</v>
@@ -14928,13 +14907,13 @@
         <v>23854</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>535</v>
+        <v>370</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="M48" s="7">
         <v>58</v>
@@ -14943,13 +14922,13 @@
         <v>61359</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -14967,10 +14946,10 @@
         <v>21</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>756</v>
+        <v>981</v>
       </c>
       <c r="H49" s="7">
         <v>55</v>
@@ -14979,13 +14958,13 @@
         <v>45077</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>1090</v>
+        <v>1038</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>108</v>
+        <v>1085</v>
       </c>
       <c r="M49" s="7">
         <v>80</v>
@@ -14994,13 +14973,13 @@
         <v>76957</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>950</v>
+        <v>561</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -15015,13 +14994,13 @@
         <v>779877</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="H50" s="7">
         <v>960</v>
@@ -15030,13 +15009,13 @@
         <v>781475</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="M50" s="7">
         <v>1657</v>
@@ -15045,13 +15024,13 @@
         <v>1561352</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -15137,10 +15116,10 @@
         <v>498</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="M52" s="7">
         <v>3</v>
@@ -15152,10 +15131,10 @@
         <v>15</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -15170,13 +15149,13 @@
         <v>38427</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>214</v>
+        <v>957</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>596</v>
+        <v>732</v>
       </c>
       <c r="H53" s="7">
         <v>52</v>
@@ -15185,13 +15164,13 @@
         <v>43180</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>1107</v>
+        <v>926</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>381</v>
+        <v>1101</v>
       </c>
       <c r="M53" s="7">
         <v>94</v>
@@ -15200,13 +15179,13 @@
         <v>81607</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>399</v>
+        <v>1102</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>1108</v>
+        <v>982</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -15221,13 +15200,13 @@
         <v>220704</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1109</v>
+        <v>570</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>409</v>
+        <v>1104</v>
       </c>
       <c r="H54" s="7">
         <v>222</v>
@@ -15236,13 +15215,13 @@
         <v>164779</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>1112</v>
+        <v>384</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>1113</v>
+        <v>513</v>
       </c>
       <c r="M54" s="7">
         <v>412</v>
@@ -15251,13 +15230,13 @@
         <v>385483</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>983</v>
+        <v>502</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -15272,13 +15251,13 @@
         <v>401402</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>785</v>
+        <v>1108</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="H55" s="7">
         <v>568</v>
@@ -15287,13 +15266,13 @@
         <v>377563</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="M55" s="7">
         <v>957</v>
@@ -15302,13 +15281,13 @@
         <v>778966</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>1070</v>
+        <v>1114</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -15323,13 +15302,13 @@
         <v>2711489</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="H56" s="7">
         <v>4496</v>
@@ -15338,13 +15317,13 @@
         <v>3204671</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="M56" s="7">
         <v>7241</v>
@@ -15353,13 +15332,13 @@
         <v>5916161</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>1128</v>
+        <v>1042</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
